--- a/docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA00B6-A074-4DE2-A991-2DC5D187A3D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16329D4-A3C6-4138-9DB5-B870F7D912E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
   <si>
     <t>VVSS, Info Romana, 2024-2025</t>
   </si>
@@ -405,18 +405,6 @@
     <t>F02_P04</t>
   </si>
   <si>
-    <t>1 - 2(F) -4-5(F)-9</t>
-  </si>
-  <si>
-    <t>1 - 2(T) -3-5(F)-9</t>
-  </si>
-  <si>
-    <t>1 - 2(T) -3-5(T)-6(F)-5(F)-9</t>
-  </si>
-  <si>
-    <t>1 - 2(T) -3-5(T)-6(T)-7-8-5(F)-9</t>
-  </si>
-  <si>
     <t>Muresan Andreea-Maria</t>
   </si>
   <si>
@@ -441,9 +429,6 @@
     <t>taskList</t>
   </si>
   <si>
-    <t>[t1,t2,t3]</t>
-  </si>
-  <si>
     <t>tasks</t>
   </si>
   <si>
@@ -456,15 +441,9 @@
     <t>t2(2024-10-10,2024-10-11)</t>
   </si>
   <si>
-    <t>t3(2024-10-10,2024-10-11)</t>
-  </si>
-  <si>
     <t>[t1,t2,t3,t4]</t>
   </si>
   <si>
-    <t>[t4]</t>
-  </si>
-  <si>
     <t>instanceof ArrayTaskList</t>
   </si>
   <si>
@@ -474,22 +453,52 @@
     <t>FOR(I=0:SIZE())</t>
   </si>
   <si>
-    <t>t(i).after(start) &amp;&amp; t(i).before(end)</t>
-  </si>
-  <si>
     <t>IllegalArgumentException</t>
   </si>
   <si>
     <t>da</t>
   </si>
   <si>
-    <t>F02_T03</t>
-  </si>
-  <si>
-    <t>F02_T04</t>
-  </si>
-  <si>
-    <t>F02_T05</t>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>t3(2024-10-10,2024-10-12)</t>
+  </si>
+  <si>
+    <t>[t1,t2]</t>
+  </si>
+  <si>
+    <t>1 - 2(F) -4-5(F)-10</t>
+  </si>
+  <si>
+    <t>1 - 2(T) -3-5(F)-10</t>
+  </si>
+  <si>
+    <t>1 - 2(T) -3-5(T)-6(F)-5(F)-10</t>
+  </si>
+  <si>
+    <t>1 - 2(T) -3-5(T)-6(T)-7(F)-5(F)-10</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>1 - 2(T) -3-5(T)-6(T)-7(T)-8-9-5(F)-10</t>
+  </si>
+  <si>
+    <t>t(i).after(start) !=null</t>
+  </si>
+  <si>
+    <t>t(i).after(start).before(end)</t>
+  </si>
+  <si>
+    <t>[t3]</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1659,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1738,6 +1747,64 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1747,6 +1814,27 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1759,25 +1847,157 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,9 +2009,6 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1816,9 +2033,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1834,212 +2048,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="46" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2105,23 +2122,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>579782</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5522</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>5522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3202332</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>411923</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88072</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3612534-9C6A-AE36-3596-5D6D9958988A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4608FCE-CC0B-A671-90F2-1C594A20936C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2144,8 +2161,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="579782" y="1275522"/>
-          <a:ext cx="7652854" cy="3519280"/>
+          <a:off x="623957" y="1281044"/>
+          <a:ext cx="4818270" cy="3362463"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2166,23 +2183,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>601870</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428290</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>104915</xdr:rowOff>
+      <xdr:rowOff>93870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>242956</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>102193</xdr:rowOff>
+      <xdr:colOff>588059</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>2847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF965FB3-DFEB-1F27-20D0-7FF5EA390AE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAE5721-860F-8D2E-38D7-7DB80DC1FB96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,8 +2215,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="601870" y="5389219"/>
-          <a:ext cx="3434521" cy="5463800"/>
+          <a:off x="1046725" y="5378174"/>
+          <a:ext cx="3334769" cy="6468803"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2503,7 +2520,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:M11"/>
     </sheetView>
   </sheetViews>
@@ -2516,12 +2533,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
@@ -2569,7 +2586,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P7" s="27">
         <v>235</v>
@@ -2584,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P8" s="27">
         <v>235</v>
@@ -2601,43 +2618,43 @@
         <v>12</v>
       </c>
       <c r="O9" s="27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P9" s="27">
         <v>235</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
@@ -2668,8 +2685,8 @@
   </sheetPr>
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2679,365 +2696,353 @@
     <col min="11" max="11" width="5.453125" customWidth="1"/>
     <col min="12" max="15" width="8.81640625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" customWidth="1"/>
+    <col min="20" max="20" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="92"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="66"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="Q6" s="39" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="31"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="Q8" s="44" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="Q8" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
       <c r="T8" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="Q9" s="44" t="s">
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="Q9" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
       <c r="T9" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B10" s="34"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="94"/>
-      <c r="Q10" s="44" t="s">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="40"/>
+      <c r="Q10" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="44"/>
+      <c r="S10" s="71"/>
       <c r="T10" s="33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="34"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="35"/>
       <c r="G11" s="35"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="96"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="42"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="34"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="42"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="34"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="96"/>
-      <c r="Q13" s="39" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="42"/>
+      <c r="Q13" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="35"/>
       <c r="G14" s="35"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="96"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="96"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42"/>
       <c r="Q15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="R15" s="45" t="s">
+      <c r="R15" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="96"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42"/>
       <c r="Q16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="R16" s="140" t="s">
+        <v>95</v>
+      </c>
+      <c r="S16" s="140"/>
+      <c r="T16" s="140"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42"/>
       <c r="Q17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="R17" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="R17" s="140" t="s">
+        <v>96</v>
+      </c>
+      <c r="S17" s="140"/>
+      <c r="T17" s="140"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="96"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="42"/>
       <c r="Q18" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="R18" s="140" t="s">
+        <v>97</v>
+      </c>
+      <c r="S18" s="140"/>
+      <c r="T18" s="140"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="96"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
       <c r="Q19" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="R19" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="R19" s="140" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="96"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
       <c r="Q20" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+        <v>99</v>
+      </c>
+      <c r="R20" s="140" t="s">
+        <v>100</v>
+      </c>
+      <c r="S20" s="140"/>
+      <c r="T20" s="140"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="96"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="42"/>
       <c r="Q21" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="S21" s="69"/>
+      <c r="T21" s="69"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="96"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="42"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="96"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="42"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="98"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="44"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B29" s="101" t="s">
+      <c r="B29" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
+  <mergeCells count="18">
     <mergeCell ref="D1:I1"/>
-    <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="Q10:S10"/>
@@ -3046,8 +3051,15 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3060,211 +3072,227 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:Y21"/>
+  <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:E14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="4" width="12.26953125" customWidth="1"/>
     <col min="5" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
     <col min="8" max="8" width="8.1796875" customWidth="1"/>
     <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="11" width="9.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" customWidth="1"/>
-    <col min="14" max="14" width="8.81640625" customWidth="1"/>
-    <col min="15" max="15" width="8.26953125" customWidth="1"/>
-    <col min="17" max="17" width="10.26953125" customWidth="1"/>
-    <col min="18" max="18" width="6.81640625" customWidth="1"/>
-    <col min="19" max="19" width="6.90625" customWidth="1"/>
-    <col min="20" max="21" width="6.36328125" customWidth="1"/>
-    <col min="22" max="22" width="7.26953125" customWidth="1"/>
-    <col min="23" max="23" width="4.1796875" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" customWidth="1"/>
-    <col min="25" max="25" width="5.7265625" customWidth="1"/>
-    <col min="26" max="26" width="3.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="14.54296875" customWidth="1"/>
+    <col min="15" max="15" width="11.6328125" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="8.26953125" customWidth="1"/>
+    <col min="20" max="20" width="10.26953125" customWidth="1"/>
+    <col min="21" max="21" width="6.81640625" customWidth="1"/>
+    <col min="22" max="22" width="6.90625" customWidth="1"/>
+    <col min="23" max="24" width="6.36328125" customWidth="1"/>
+    <col min="25" max="25" width="7.26953125" customWidth="1"/>
+    <col min="26" max="26" width="4.1796875" customWidth="1"/>
+    <col min="27" max="27" width="5.453125" customWidth="1"/>
+    <col min="28" max="28" width="5.7265625" customWidth="1"/>
+    <col min="29" max="29" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B3" s="120" t="s">
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B3" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="118"/>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="86"/>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="111"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="47" t="s">
+      <c r="D6" s="91"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="130" t="s">
+      <c r="G6" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="131"/>
-      <c r="P6" s="131"/>
-      <c r="Q6" s="131"/>
-      <c r="R6" s="131"/>
-      <c r="S6" s="131"/>
-      <c r="T6" s="131"/>
-      <c r="U6" s="131"/>
-      <c r="V6" s="131"/>
-      <c r="W6" s="131"/>
-      <c r="X6" s="131"/>
-      <c r="Y6" s="132"/>
-    </row>
-    <row r="7" spans="2:25" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="46"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="52" t="s">
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="77"/>
+    </row>
+    <row r="7" spans="2:28" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="102"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="50" t="s">
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="49" t="s">
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-    </row>
-    <row r="8" spans="2:25" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47" t="s">
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+    </row>
+    <row r="8" spans="2:28" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="102"/>
+      <c r="C8" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="89"/>
+      <c r="H8" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="51"/>
-      <c r="N8" s="50" t="s">
+      <c r="I8" s="99"/>
+      <c r="J8" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="99"/>
+      <c r="L8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="99"/>
+      <c r="P8" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="O8" s="50" t="s">
+      <c r="Q8" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="50" t="s">
+      <c r="R8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="50" t="s">
+      <c r="S8" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="R8" s="49">
+      <c r="T8" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="U8" s="74">
         <v>0</v>
       </c>
-      <c r="S8" s="49">
+      <c r="V8" s="74">
         <v>1</v>
       </c>
-      <c r="T8" s="49">
+      <c r="W8" s="74">
         <v>2</v>
       </c>
-      <c r="U8" s="133">
+      <c r="X8" s="100">
         <v>4</v>
       </c>
-      <c r="V8" s="49" t="s">
+      <c r="Y8" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="49" t="s">
+      <c r="Z8" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="49" t="s">
+      <c r="AA8" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="49" t="s">
+      <c r="AB8" s="74" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="46"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="52"/>
+    <row r="9" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="102"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="13" t="s">
         <v>40</v>
       </c>
@@ -3283,260 +3311,288 @@
       <c r="M9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-    </row>
-    <row r="10" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="14">
-        <v>1</v>
+      <c r="N9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+    </row>
+    <row r="10" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125" t="s">
-        <v>93</v>
+        <v>77</v>
+      </c>
+      <c r="G10" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51" t="s">
+        <v>86</v>
       </c>
       <c r="J10" s="17"/>
       <c r="K10" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="Q10" s="18"/>
-      <c r="R10" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124"/>
-    </row>
-    <row r="11" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="14">
-        <v>2</v>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+    </row>
+    <row r="11" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="125"/>
+        <v>77</v>
+      </c>
+      <c r="G11" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="51"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-    </row>
-    <row r="12" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="14">
-        <v>3</v>
+      <c r="Q11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="50"/>
+      <c r="AB11" s="50"/>
+    </row>
+    <row r="12" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="135">
+        <v>77</v>
+      </c>
+      <c r="D12" s="53">
         <v>45575</v>
       </c>
-      <c r="E12" s="135">
+      <c r="E12" s="53">
         <v>45574</v>
       </c>
-      <c r="F12" s="116" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="126" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="124"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="124"/>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
-      <c r="W12" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="X12" s="124"/>
-      <c r="Y12" s="124"/>
-    </row>
-    <row r="13" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="14">
-        <v>4</v>
+      <c r="F12" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA12" s="50"/>
+      <c r="AB12" s="50"/>
+    </row>
+    <row r="13" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="112">
+        <v>103</v>
+      </c>
+      <c r="D13" s="46">
         <v>45575</v>
       </c>
-      <c r="E13" s="112">
+      <c r="E13" s="46">
         <v>45576</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G13" s="117" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="125"/>
+        <v>77</v>
+      </c>
+      <c r="G13" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="51"/>
       <c r="J13" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="17"/>
       <c r="P13" s="18"/>
-      <c r="Q13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R13" s="124"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="124"/>
-      <c r="U13" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="124"/>
-      <c r="W13" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="X13" s="124"/>
-      <c r="Y13" s="124"/>
-    </row>
-    <row r="14" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="14">
-        <v>5</v>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA13" s="50"/>
+      <c r="AB13" s="50"/>
+    </row>
+    <row r="14" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="112">
+        <v>84</v>
+      </c>
+      <c r="D14" s="46">
         <v>45575</v>
       </c>
-      <c r="E14" s="112">
+      <c r="E14" s="46">
         <v>45576</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="115" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="G14" s="141" t="s">
+        <v>100</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18" t="s">
-        <v>93</v>
-      </c>
+      <c r="L14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
-      <c r="R14" s="124"/>
-      <c r="S14" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="T14" s="124"/>
-      <c r="U14" s="124"/>
-      <c r="V14" s="124"/>
-      <c r="W14" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="X14" s="124"/>
-      <c r="Y14" s="124"/>
-    </row>
-    <row r="15" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA14" s="50"/>
+      <c r="AB14" s="50"/>
+    </row>
+    <row r="15" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
@@ -3551,83 +3607,88 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="19"/>
       <c r="V15" s="19"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
-    </row>
-    <row r="16" spans="2:25" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+    </row>
+    <row r="16" spans="2:28" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="108"/>
+      <c r="C18" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="79"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="107" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="106"/>
+      <c r="C19" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="81"/>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="106"/>
+      <c r="C20" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="81"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="105" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="104"/>
+      <c r="C21" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="R7:Y7"/>
-    <mergeCell ref="G6:Y6"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="35">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B3:P3"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C6:E7"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="H7:O7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:AB7"/>
+    <mergeCell ref="G6:AB6"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="X8:X9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V8:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3641,8 +3702,8 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3662,71 +3723,71 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="57"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="136" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="136" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="136" t="s">
+      <c r="B5" s="127"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="54" t="s">
         <v>80</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>76</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="I5" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="61"/>
+      <c r="J5" s="131"/>
       <c r="K5" s="2" t="s">
         <v>49</v>
       </c>
@@ -3738,157 +3799,157 @@
       <c r="B6" s="21">
         <v>9</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="132" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="69" t="s">
+      <c r="I6" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="70"/>
+      <c r="J6" s="139"/>
       <c r="K6" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="21">
         <v>10</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="132"/>
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I7" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="21">
         <v>11</v>
       </c>
-      <c r="C8" s="62"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="135">
+        <v>77</v>
+      </c>
+      <c r="F8" s="53">
         <v>45575</v>
       </c>
-      <c r="G8" s="135">
+      <c r="G8" s="53">
         <v>45574</v>
       </c>
       <c r="H8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="59"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="21" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="21">
         <v>12</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="132"/>
       <c r="D9" s="10" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="112">
+        <v>103</v>
+      </c>
+      <c r="F9" s="46">
         <v>45575</v>
       </c>
-      <c r="G9" s="112">
+      <c r="G9" s="46">
         <v>45576</v>
       </c>
       <c r="H9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="58" t="s">
+      <c r="I9" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="59"/>
-      <c r="K9" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>84</v>
+      <c r="J9" s="129"/>
+      <c r="K9" s="144" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="144" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="133"/>
       <c r="D10" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="112">
+        <v>84</v>
+      </c>
+      <c r="F10" s="46">
         <v>45575</v>
       </c>
-      <c r="G10" s="112">
+      <c r="G10" s="46">
         <v>45576</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="61"/>
-      <c r="K10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>81</v>
+      <c r="J10" s="131"/>
+      <c r="K10" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="144" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.35">
@@ -3905,9 +3966,9 @@
       <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
       <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:14" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3917,77 +3978,77 @@
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="138"/>
-      <c r="H13" s="71" t="s">
+      <c r="G13" s="56"/>
+      <c r="H13" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="53" t="s">
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="54"/>
+      <c r="N13" s="125"/>
     </row>
     <row r="14" spans="2:14" ht="92.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="105" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="141" t="s">
+      <c r="G14" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="78" t="s">
+      <c r="K14" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L14" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="112" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="81"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="73"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="113"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="27">
@@ -4007,10 +4068,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="I16" s="27">
         <v>1</v>
@@ -4025,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="N16" s="30">
         <v>1</v>
@@ -4033,17 +4094,8 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
@@ -4060,8 +4112,17 @@
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4069,9 +4130,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4243,19 +4307,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4279,9 +4339,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5426D20B-58AE-4BE9-8733-DFB2BC19D8C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6597AB9C-DC10-4824-8900-518D3B18165A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>